--- a/Code/Results/Cases/Case_5_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.028811312774621</v>
+        <v>0.4668373067085838</v>
       </c>
       <c r="C2">
-        <v>0.1367285129810227</v>
+        <v>0.03987753500712188</v>
       </c>
       <c r="D2">
-        <v>0.2062476019962105</v>
+        <v>0.1873939752031788</v>
       </c>
       <c r="E2">
-        <v>0.1715253597013771</v>
+        <v>0.166210065083412</v>
       </c>
       <c r="F2">
-        <v>0.8236630310591622</v>
+        <v>1.484535831506911</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1867401625102616</v>
+        <v>0.1890045645123664</v>
       </c>
       <c r="K2">
-        <v>1.069671421543319</v>
+        <v>0.4298630101824585</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8030113994381325</v>
+        <v>1.667300998228899</v>
       </c>
       <c r="O2">
-        <v>1.84064139610328</v>
+        <v>3.623486681340324</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8938311884134862</v>
+        <v>0.4287475654600996</v>
       </c>
       <c r="C3">
-        <v>0.1201571198411244</v>
+        <v>0.03478104256781478</v>
       </c>
       <c r="D3">
-        <v>0.181965732481558</v>
+        <v>0.1815751677574582</v>
       </c>
       <c r="E3">
-        <v>0.1525436129707316</v>
+        <v>0.1620237846593824</v>
       </c>
       <c r="F3">
-        <v>0.7876768494099906</v>
+        <v>1.485436559375891</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.167196800029231</v>
+        <v>0.1849979845659249</v>
       </c>
       <c r="K3">
-        <v>0.9290491959735903</v>
+        <v>0.3893307655360161</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8445177542131075</v>
+        <v>1.68493773425644</v>
       </c>
       <c r="O3">
-        <v>1.797959449537814</v>
+        <v>3.638125709781946</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8112568776536477</v>
+        <v>0.4054897257898915</v>
       </c>
       <c r="C4">
-        <v>0.1099794863876014</v>
+        <v>0.03164125845404442</v>
       </c>
       <c r="D4">
-        <v>0.1671834532189678</v>
+        <v>0.1780815867067247</v>
       </c>
       <c r="E4">
-        <v>0.1410489552884897</v>
+        <v>0.1595368129236157</v>
       </c>
       <c r="F4">
-        <v>0.7669914707584979</v>
+        <v>1.486746116947138</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.155421581399338</v>
+        <v>0.1826434735646245</v>
       </c>
       <c r="K4">
-        <v>0.8429326708487963</v>
+        <v>0.3645219074927866</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8710962110194282</v>
+        <v>1.696319255513855</v>
       </c>
       <c r="O4">
-        <v>1.775288918912452</v>
+        <v>3.648967928411309</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7776701156683998</v>
+        <v>0.3960450350762699</v>
       </c>
       <c r="C5">
-        <v>0.1058299939607963</v>
+        <v>0.03035919039130874</v>
       </c>
       <c r="D5">
-        <v>0.1611886003839231</v>
+        <v>0.1766779432694818</v>
       </c>
       <c r="E5">
-        <v>0.1364018537338438</v>
+        <v>0.1585443799780499</v>
       </c>
       <c r="F5">
-        <v>0.7588993509075124</v>
+        <v>1.487470109109651</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1506752267630702</v>
+        <v>0.1817105536293866</v>
       </c>
       <c r="K5">
-        <v>0.8078829122551667</v>
+        <v>0.3544322752698292</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8821955696481187</v>
+        <v>1.701096241540262</v>
       </c>
       <c r="O5">
-        <v>1.766899378902011</v>
+        <v>3.653852443779769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7720964797320278</v>
+        <v>0.3944787640630807</v>
       </c>
       <c r="C6">
-        <v>0.1051408141333638</v>
+        <v>0.03014614999634091</v>
       </c>
       <c r="D6">
-        <v>0.1601948330383749</v>
+        <v>0.1764460815806927</v>
       </c>
       <c r="E6">
-        <v>0.1356323535217534</v>
+        <v>0.1583808588062503</v>
       </c>
       <c r="F6">
-        <v>0.7575755454283808</v>
+        <v>1.487601826499009</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1498901256463299</v>
+        <v>0.1815572479465288</v>
       </c>
       <c r="K6">
-        <v>0.8020651709036599</v>
+        <v>0.3527581341586483</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.884054637083405</v>
+        <v>1.701897846966538</v>
       </c>
       <c r="O6">
-        <v>1.765556429556582</v>
+        <v>3.6546916747252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8108036773274989</v>
+        <v>0.4053622168021889</v>
       </c>
       <c r="C7">
-        <v>0.1099235347859207</v>
+        <v>0.03162397839862763</v>
       </c>
       <c r="D7">
-        <v>0.1671024906082863</v>
+        <v>0.1780625754816612</v>
       </c>
       <c r="E7">
-        <v>0.1409861369203043</v>
+        <v>0.1595233434150174</v>
       </c>
       <c r="F7">
-        <v>0.7668809939612302</v>
+        <v>1.4867551101513</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1553573648130566</v>
+        <v>0.1826307843000876</v>
       </c>
       <c r="K7">
-        <v>0.8424598189353674</v>
+        <v>0.3643857527664238</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8712448223993658</v>
+        <v>1.696383117128856</v>
       </c>
       <c r="O7">
-        <v>1.775172389451882</v>
+        <v>3.649031914882954</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9821986676254255</v>
+        <v>0.4536774065601321</v>
       </c>
       <c r="C8">
-        <v>0.1310144279854768</v>
+        <v>0.03812248416735997</v>
       </c>
       <c r="D8">
-        <v>0.197847104623591</v>
+        <v>0.1853712760128872</v>
       </c>
       <c r="E8">
-        <v>0.1649452072049016</v>
+        <v>0.1647493505914497</v>
       </c>
       <c r="F8">
-        <v>0.8109516141260329</v>
+        <v>1.484689449904387</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1799523550031239</v>
+        <v>0.1876012014551662</v>
       </c>
       <c r="K8">
-        <v>1.021129600416685</v>
+        <v>0.4158715922708325</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8170918435923373</v>
+        <v>1.673267472992481</v>
       </c>
       <c r="O8">
-        <v>1.825165771662398</v>
+        <v>3.628149500113437</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.321377920384919</v>
+        <v>0.549432037787227</v>
       </c>
       <c r="C9">
-        <v>0.1724184347541922</v>
+        <v>0.05078036546186127</v>
       </c>
       <c r="D9">
-        <v>0.2592831127534936</v>
+        <v>0.2003281708281008</v>
       </c>
       <c r="E9">
-        <v>0.2133557016579033</v>
+        <v>0.1756578958779897</v>
       </c>
       <c r="F9">
-        <v>0.9093909282795352</v>
+        <v>1.486638268594106</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2301716459666068</v>
+        <v>0.198185394669764</v>
       </c>
       <c r="K9">
-        <v>1.373954029418968</v>
+        <v>0.5174363035354759</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7198801173868239</v>
+        <v>1.632321110503866</v>
       </c>
       <c r="O9">
-        <v>1.953188518430551</v>
+        <v>3.601907847604906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.573447253626455</v>
+        <v>0.6203807254739218</v>
       </c>
       <c r="C10">
-        <v>0.2029672745077704</v>
+        <v>0.06002577945309895</v>
       </c>
       <c r="D10">
-        <v>0.3053275468925847</v>
+        <v>0.2116939613104734</v>
       </c>
       <c r="E10">
-        <v>0.2500250128447874</v>
+        <v>0.1840739315295679</v>
       </c>
       <c r="F10">
-        <v>0.9902638686792358</v>
+        <v>1.491726132786368</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.268588934935508</v>
+        <v>0.2064727756213216</v>
       </c>
       <c r="K10">
-        <v>1.635669497547838</v>
+        <v>0.5924049034930761</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.654380593576033</v>
+        <v>1.604908412260047</v>
       </c>
       <c r="O10">
-        <v>2.068372043306113</v>
+        <v>3.591598606151763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.688983674146783</v>
+        <v>0.6527837088962656</v>
       </c>
       <c r="C11">
-        <v>0.2169175697847407</v>
+        <v>0.06421956658070371</v>
       </c>
       <c r="D11">
-        <v>0.3265210883770777</v>
+        <v>0.2169456804096939</v>
       </c>
       <c r="E11">
-        <v>0.2670014582502134</v>
+        <v>0.1879896311423863</v>
       </c>
       <c r="F11">
-        <v>1.029202416042907</v>
+        <v>1.494834492637878</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2864698954331715</v>
+        <v>0.2103541482696585</v>
       </c>
       <c r="K11">
-        <v>1.755512389458261</v>
+        <v>0.6265825886493701</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6259749502680214</v>
+        <v>1.593017225745978</v>
       </c>
       <c r="O11">
-        <v>2.126035616379596</v>
+        <v>3.588857641904866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.732880222638329</v>
+        <v>0.6650718548515329</v>
       </c>
       <c r="C12">
-        <v>0.2222100572090255</v>
+        <v>0.0658058658539602</v>
       </c>
       <c r="D12">
-        <v>0.3345864992934509</v>
+        <v>0.2189459793983417</v>
       </c>
       <c r="E12">
-        <v>0.2734773576318119</v>
+        <v>0.189484907157258</v>
       </c>
       <c r="F12">
-        <v>1.04428239891007</v>
+        <v>1.496125647310578</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2933056896757762</v>
+        <v>0.2118399368558244</v>
       </c>
       <c r="K12">
-        <v>1.801028019548625</v>
+        <v>0.6395349956353584</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6154280668617627</v>
+        <v>1.588597615513486</v>
       </c>
       <c r="O12">
-        <v>2.148689082913791</v>
+        <v>3.588099970784015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.723419505992808</v>
+        <v>0.6624245985358073</v>
       </c>
       <c r="C13">
-        <v>0.2210697531896244</v>
+        <v>0.06546430898012545</v>
       </c>
       <c r="D13">
-        <v>0.3328476242159866</v>
+        <v>0.2185146656922399</v>
       </c>
       <c r="E13">
-        <v>0.2720804734126716</v>
+        <v>0.1891623182800686</v>
       </c>
       <c r="F13">
-        <v>1.041019334642371</v>
+        <v>1.495842501159558</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2918304953069537</v>
+        <v>0.2115192345898578</v>
       </c>
       <c r="K13">
-        <v>1.791219123227592</v>
+        <v>0.6367450251273681</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6176900368177236</v>
+        <v>1.589545750708303</v>
       </c>
       <c r="O13">
-        <v>2.143772888481976</v>
+        <v>3.588250682931516</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692592032646758</v>
+        <v>0.6537943078372734</v>
       </c>
       <c r="C14">
-        <v>0.2173527764436187</v>
+        <v>0.06435010879852143</v>
       </c>
       <c r="D14">
-        <v>0.3271838099457369</v>
+        <v>0.2171100146396299</v>
       </c>
       <c r="E14">
-        <v>0.267533257892957</v>
+        <v>0.1881123984819268</v>
       </c>
       <c r="F14">
-        <v>1.030436191333649</v>
+        <v>1.494938430656603</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2870309457337044</v>
+        <v>0.2104760645166692</v>
       </c>
       <c r="K14">
-        <v>1.759254184551764</v>
+        <v>0.6276479927724949</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6251029903855607</v>
+        <v>1.592651951424489</v>
       </c>
       <c r="O14">
-        <v>2.127882585862352</v>
+        <v>3.588789690519292</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.673728885605215</v>
+        <v>0.6485103116744995</v>
       </c>
       <c r="C15">
-        <v>0.2150773648760378</v>
+        <v>0.06366739288363021</v>
       </c>
       <c r="D15">
-        <v>0.3237198847406404</v>
+        <v>0.2162511309136477</v>
       </c>
       <c r="E15">
-        <v>0.264754263979242</v>
+        <v>0.1874709166665198</v>
       </c>
       <c r="F15">
-        <v>1.023998107077091</v>
+        <v>1.494399516668324</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.284099703707426</v>
+        <v>0.2098391753365263</v>
       </c>
       <c r="K15">
-        <v>1.739692787460882</v>
+        <v>0.622077090143847</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.629671251459865</v>
+        <v>1.594565442318435</v>
       </c>
       <c r="O15">
-        <v>2.118257643873562</v>
+        <v>3.589156349269615</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.565915876483814</v>
+        <v>0.6182656420854471</v>
       </c>
       <c r="C16">
-        <v>0.2020568435517305</v>
+        <v>0.05975145804789861</v>
       </c>
       <c r="D16">
-        <v>0.3039478407272327</v>
+        <v>0.2113523767057188</v>
       </c>
       <c r="E16">
-        <v>0.2489219098361914</v>
+        <v>0.183819781476366</v>
       </c>
       <c r="F16">
-        <v>0.9877645494831313</v>
+        <v>1.491538962727219</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.267429058426103</v>
+        <v>0.2062213585675465</v>
       </c>
       <c r="K16">
-        <v>1.627855043585896</v>
+        <v>0.5901727514635127</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6562657686456226</v>
+        <v>1.605697185577163</v>
       </c>
       <c r="O16">
-        <v>2.064714615846071</v>
+        <v>3.591816952347699</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.500012720143246</v>
+        <v>0.5997439082712788</v>
       </c>
       <c r="C17">
-        <v>0.1940843286107281</v>
+        <v>0.05734603491167434</v>
       </c>
       <c r="D17">
-        <v>0.2918847113103311</v>
+        <v>0.2083679085376104</v>
       </c>
       <c r="E17">
-        <v>0.2392882481672345</v>
+        <v>0.1816022246264382</v>
       </c>
       <c r="F17">
-        <v>0.9661046344979667</v>
+        <v>1.489987383283292</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2573102755727348</v>
+        <v>0.2040304619399507</v>
       </c>
       <c r="K17">
-        <v>1.559461964812613</v>
+        <v>0.5706190266997169</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6729435129227075</v>
+        <v>1.612674488373195</v>
       </c>
       <c r="O17">
-        <v>2.033258031031409</v>
+        <v>3.593948301275077</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.46218743297689</v>
+        <v>0.58910278588192</v>
       </c>
       <c r="C18">
-        <v>0.1895036450251979</v>
+        <v>0.05596137410451263</v>
       </c>
       <c r="D18">
-        <v>0.2849693608581987</v>
+        <v>0.2066589865261648</v>
       </c>
       <c r="E18">
-        <v>0.2337747169882931</v>
+        <v>0.1803349557725227</v>
       </c>
       <c r="F18">
-        <v>0.9538470563849728</v>
+        <v>1.489169682377991</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2515279023509578</v>
+        <v>0.2027808031475899</v>
       </c>
       <c r="K18">
-        <v>1.520196854029621</v>
+        <v>0.5593792509650939</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6826663596250127</v>
+        <v>1.616742141277424</v>
       </c>
       <c r="O18">
-        <v>2.015656846762113</v>
+        <v>3.595357620847835</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.449393660677401</v>
+        <v>0.585501978552486</v>
       </c>
       <c r="C19">
-        <v>0.1879534832825982</v>
+        <v>0.05549236070318386</v>
       </c>
       <c r="D19">
-        <v>0.2826317746080065</v>
+        <v>0.2060816948337276</v>
       </c>
       <c r="E19">
-        <v>0.231912511432256</v>
+        <v>0.1799072922367415</v>
       </c>
       <c r="F19">
-        <v>0.9497305535149678</v>
+        <v>1.488905659406811</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2495763728021103</v>
+        <v>0.2023594919804168</v>
       </c>
       <c r="K19">
-        <v>1.506914261240098</v>
+        <v>0.555574878058394</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6859804317031619</v>
+        <v>1.61812873589205</v>
       </c>
       <c r="O19">
-        <v>2.009780088588826</v>
+        <v>3.595866294196583</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.507019752160971</v>
+        <v>0.6017143314641942</v>
       </c>
       <c r="C20">
-        <v>0.1949324948714519</v>
+        <v>0.05760221326718806</v>
       </c>
       <c r="D20">
-        <v>0.2931664373061693</v>
+        <v>0.2086848177753069</v>
       </c>
       <c r="E20">
-        <v>0.2403108883672118</v>
+        <v>0.181837437902459</v>
       </c>
       <c r="F20">
-        <v>0.9683894237804509</v>
+        <v>1.490144818154789</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2583834918903847</v>
+        <v>0.2042626014225135</v>
       </c>
       <c r="K20">
-        <v>1.566734848574953</v>
+        <v>0.5726998329275261</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6711545895509095</v>
+        <v>1.61192610229706</v>
       </c>
       <c r="O20">
-        <v>2.036555314321191</v>
+        <v>3.593702431526907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.701642691675744</v>
+        <v>0.6563287538604925</v>
       </c>
       <c r="C21">
-        <v>0.218444258482549</v>
+        <v>0.06467742573737212</v>
       </c>
       <c r="D21">
-        <v>0.3288462918301036</v>
+        <v>0.2175222811401625</v>
       </c>
       <c r="E21">
-        <v>0.2688675618944742</v>
+        <v>0.1884204469554192</v>
       </c>
       <c r="F21">
-        <v>1.033535416280785</v>
+        <v>1.495200882373851</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.288438881051448</v>
+        <v>0.2107820348802392</v>
       </c>
       <c r="K21">
-        <v>1.768639261278167</v>
+        <v>0.6303197434259573</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6229198533152407</v>
+        <v>1.591737323045715</v>
       </c>
       <c r="O21">
-        <v>2.132527264010264</v>
+        <v>3.588623764064607</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.82969821988425</v>
+        <v>0.6921261495433555</v>
       </c>
       <c r="C22">
-        <v>0.233868869801924</v>
+        <v>0.06929097923676864</v>
       </c>
       <c r="D22">
-        <v>0.3523997658157327</v>
+        <v>0.2233655592523149</v>
       </c>
       <c r="E22">
-        <v>0.2878091127135249</v>
+        <v>0.1927955739554008</v>
       </c>
       <c r="F22">
-        <v>1.078076851173023</v>
+        <v>1.499170261686686</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.308462059197268</v>
+        <v>0.2151360936170761</v>
       </c>
       <c r="K22">
-        <v>1.901385592540407</v>
+        <v>0.6680360431938084</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5926230858791521</v>
+        <v>1.579028497734905</v>
       </c>
       <c r="O22">
-        <v>2.200046734101448</v>
+        <v>3.586938224310785</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.761266886009366</v>
+        <v>0.6730111066829068</v>
       </c>
       <c r="C23">
-        <v>0.2256303802900419</v>
+        <v>0.0668296239200572</v>
       </c>
       <c r="D23">
-        <v>0.3398058793146248</v>
+        <v>0.220240754304541</v>
       </c>
       <c r="E23">
-        <v>0.2776725229337131</v>
+        <v>0.1904538476578281</v>
       </c>
       <c r="F23">
-        <v>1.054115477259771</v>
+        <v>1.496990909749528</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2977382613942439</v>
+        <v>0.2128037272822638</v>
       </c>
       <c r="K23">
-        <v>1.830456889546383</v>
+        <v>0.6479010011785533</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.608677323877383</v>
+        <v>1.58576697192245</v>
       </c>
       <c r="O23">
-        <v>2.163550418254232</v>
+        <v>3.587688334067963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.503851677303146</v>
+        <v>0.6008234804529877</v>
       </c>
       <c r="C24">
-        <v>0.1945490302753967</v>
+        <v>0.05748640048216203</v>
       </c>
       <c r="D24">
-        <v>0.2925869073073244</v>
+        <v>0.2085415216443636</v>
       </c>
       <c r="E24">
-        <v>0.2398484752565651</v>
+        <v>0.1817310741976925</v>
       </c>
       <c r="F24">
-        <v>0.967355865105489</v>
+        <v>1.490073410332286</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2578981821038155</v>
+        <v>0.2041576202719142</v>
       </c>
       <c r="K24">
-        <v>1.563446608105011</v>
+        <v>0.5717590944036033</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6719629433231422</v>
+        <v>1.612264272245483</v>
       </c>
       <c r="O24">
-        <v>2.035063110668546</v>
+        <v>3.593813016155508</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.229192520981286</v>
+        <v>0.5234216593057113</v>
       </c>
       <c r="C25">
-        <v>0.1612026804792777</v>
+        <v>0.04736546256532392</v>
       </c>
       <c r="D25">
-        <v>0.2425195907718916</v>
+        <v>0.1962154622044636</v>
       </c>
       <c r="E25">
-        <v>0.2000835322377696</v>
+        <v>0.172636256314739</v>
       </c>
       <c r="F25">
-        <v>0.8813523205872684</v>
+        <v>1.485468914126983</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.216342415422929</v>
+        <v>0.1952323776748983</v>
       </c>
       <c r="K25">
-        <v>1.278143849504005</v>
+        <v>0.4898978073259173</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7451725617774709</v>
+        <v>1.64292909718014</v>
       </c>
       <c r="O25">
-        <v>1.915062001929016</v>
+        <v>3.60743186500261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4668373067085838</v>
+        <v>1.028811312774621</v>
       </c>
       <c r="C2">
-        <v>0.03987753500712188</v>
+        <v>0.136728512981108</v>
       </c>
       <c r="D2">
-        <v>0.1873939752031788</v>
+        <v>0.2062476019960968</v>
       </c>
       <c r="E2">
-        <v>0.166210065083412</v>
+        <v>0.1715253597014126</v>
       </c>
       <c r="F2">
-        <v>1.484535831506911</v>
+        <v>0.8236630310591693</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1890045645123664</v>
+        <v>0.1867401625103895</v>
       </c>
       <c r="K2">
-        <v>0.4298630101824585</v>
+        <v>1.069671421543347</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.667300998228899</v>
+        <v>0.8030113994381343</v>
       </c>
       <c r="O2">
-        <v>3.623486681340324</v>
+        <v>1.840641396103308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4287475654600996</v>
+        <v>0.8938311884134862</v>
       </c>
       <c r="C3">
-        <v>0.03478104256781478</v>
+        <v>0.1201571198409397</v>
       </c>
       <c r="D3">
-        <v>0.1815751677574582</v>
+        <v>0.1819657324813733</v>
       </c>
       <c r="E3">
-        <v>0.1620237846593824</v>
+        <v>0.1525436129707387</v>
       </c>
       <c r="F3">
-        <v>1.485436559375891</v>
+        <v>0.7876768494099835</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1849979845659249</v>
+        <v>0.1671968000292381</v>
       </c>
       <c r="K3">
-        <v>0.3893307655360161</v>
+        <v>0.9290491959735903</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.68493773425644</v>
+        <v>0.8445177542130953</v>
       </c>
       <c r="O3">
-        <v>3.638125709781946</v>
+        <v>1.797959449537757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4054897257898915</v>
+        <v>0.8112568776536762</v>
       </c>
       <c r="C4">
-        <v>0.03164125845404442</v>
+        <v>0.1099794863878429</v>
       </c>
       <c r="D4">
-        <v>0.1780815867067247</v>
+        <v>0.1671834532188683</v>
       </c>
       <c r="E4">
-        <v>0.1595368129236157</v>
+        <v>0.1410489552884933</v>
       </c>
       <c r="F4">
-        <v>1.486746116947138</v>
+        <v>0.7669914707584908</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1826434735646245</v>
+        <v>0.1554215813994162</v>
       </c>
       <c r="K4">
-        <v>0.3645219074927866</v>
+        <v>0.8429326708487963</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.696319255513855</v>
+        <v>0.8710962110194154</v>
       </c>
       <c r="O4">
-        <v>3.648967928411309</v>
+        <v>1.775288918912423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3960450350762699</v>
+        <v>0.7776701156683714</v>
       </c>
       <c r="C5">
-        <v>0.03035919039130874</v>
+        <v>0.1058299939610947</v>
       </c>
       <c r="D5">
-        <v>0.1766779432694818</v>
+        <v>0.1611886003838947</v>
       </c>
       <c r="E5">
-        <v>0.1585443799780499</v>
+        <v>0.1364018537338403</v>
       </c>
       <c r="F5">
-        <v>1.487470109109651</v>
+        <v>0.7588993509075124</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1817105536293866</v>
+        <v>0.1506752267630347</v>
       </c>
       <c r="K5">
-        <v>0.3544322752698292</v>
+        <v>0.8078829122553373</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.701096241540262</v>
+        <v>0.8821955696481134</v>
       </c>
       <c r="O5">
-        <v>3.653852443779769</v>
+        <v>1.766899378902039</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3944787640630807</v>
+        <v>0.7720964797320846</v>
       </c>
       <c r="C6">
-        <v>0.03014614999634091</v>
+        <v>0.1051408141335344</v>
       </c>
       <c r="D6">
-        <v>0.1764460815806927</v>
+        <v>0.1601948330381475</v>
       </c>
       <c r="E6">
-        <v>0.1583808588062503</v>
+        <v>0.1356323535217321</v>
       </c>
       <c r="F6">
-        <v>1.487601826499009</v>
+        <v>0.7575755454283595</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1815572479465288</v>
+        <v>0.1498901256462943</v>
       </c>
       <c r="K6">
-        <v>0.3527581341586483</v>
+        <v>0.8020651709036031</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.701897846966538</v>
+        <v>0.8840546370833426</v>
       </c>
       <c r="O6">
-        <v>3.6546916747252</v>
+        <v>1.765556429556412</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4053622168021889</v>
+        <v>0.8108036773275558</v>
       </c>
       <c r="C7">
-        <v>0.03162397839862763</v>
+        <v>0.1099235347859349</v>
       </c>
       <c r="D7">
-        <v>0.1780625754816612</v>
+        <v>0.1671024906084853</v>
       </c>
       <c r="E7">
-        <v>0.1595233434150174</v>
+        <v>0.140986136920251</v>
       </c>
       <c r="F7">
-        <v>1.4867551101513</v>
+        <v>0.7668809939612089</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1826307843000876</v>
+        <v>0.1553573648130637</v>
       </c>
       <c r="K7">
-        <v>0.3643857527664238</v>
+        <v>0.8424598189351968</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.696383117128856</v>
+        <v>0.8712448223993636</v>
       </c>
       <c r="O7">
-        <v>3.649031914882954</v>
+        <v>1.775172389451797</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4536774065601321</v>
+        <v>0.9821986676255108</v>
       </c>
       <c r="C8">
-        <v>0.03812248416735997</v>
+        <v>0.1310144279855621</v>
       </c>
       <c r="D8">
-        <v>0.1853712760128872</v>
+        <v>0.1978471046236052</v>
       </c>
       <c r="E8">
-        <v>0.1647493505914497</v>
+        <v>0.1649452072049158</v>
       </c>
       <c r="F8">
-        <v>1.484689449904387</v>
+        <v>0.8109516141260258</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1876012014551662</v>
+        <v>0.1799523550030742</v>
       </c>
       <c r="K8">
-        <v>0.4158715922708325</v>
+        <v>1.021129600416771</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.673267472992481</v>
+        <v>0.8170918435923236</v>
       </c>
       <c r="O8">
-        <v>3.628149500113437</v>
+        <v>1.82516577166237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.549432037787227</v>
+        <v>1.321377920384919</v>
       </c>
       <c r="C9">
-        <v>0.05078036546186127</v>
+        <v>0.1724184347546469</v>
       </c>
       <c r="D9">
-        <v>0.2003281708281008</v>
+        <v>0.2592831127531383</v>
       </c>
       <c r="E9">
-        <v>0.1756578958779897</v>
+        <v>0.2133557016579033</v>
       </c>
       <c r="F9">
-        <v>1.486638268594106</v>
+        <v>0.9093909282795494</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.198185394669764</v>
+        <v>0.2301716459666778</v>
       </c>
       <c r="K9">
-        <v>0.5174363035354759</v>
+        <v>1.373954029418911</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.632321110503866</v>
+        <v>0.7198801173867606</v>
       </c>
       <c r="O9">
-        <v>3.601907847604906</v>
+        <v>1.953188518430494</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6203807254739218</v>
+        <v>1.573447253626313</v>
       </c>
       <c r="C10">
-        <v>0.06002577945309895</v>
+        <v>0.2029672745075146</v>
       </c>
       <c r="D10">
-        <v>0.2116939613104734</v>
+        <v>0.3053275468925136</v>
       </c>
       <c r="E10">
-        <v>0.1840739315295679</v>
+        <v>0.2500250128447874</v>
       </c>
       <c r="F10">
-        <v>1.491726132786368</v>
+        <v>0.9902638686792073</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2064727756213216</v>
+        <v>0.268588934935579</v>
       </c>
       <c r="K10">
-        <v>0.5924049034930761</v>
+        <v>1.635669497547696</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.604908412260047</v>
+        <v>0.6543805935759779</v>
       </c>
       <c r="O10">
-        <v>3.591598606151763</v>
+        <v>2.068372043306027</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6527837088962656</v>
+        <v>1.688983674146897</v>
       </c>
       <c r="C11">
-        <v>0.06421956658070371</v>
+        <v>0.2169175697844707</v>
       </c>
       <c r="D11">
-        <v>0.2169456804096939</v>
+        <v>0.326521088376893</v>
       </c>
       <c r="E11">
-        <v>0.1879896311423863</v>
+        <v>0.2670014582502134</v>
       </c>
       <c r="F11">
-        <v>1.494834492637878</v>
+        <v>1.029202416042907</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2103541482696585</v>
+        <v>0.2864698954331999</v>
       </c>
       <c r="K11">
-        <v>0.6265825886493701</v>
+        <v>1.755512389458175</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.593017225745978</v>
+        <v>0.6259749502679517</v>
       </c>
       <c r="O11">
-        <v>3.588857641904866</v>
+        <v>2.126035616379596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6650718548515329</v>
+        <v>1.732880222638357</v>
       </c>
       <c r="C12">
-        <v>0.0658058658539602</v>
+        <v>0.2222100572086987</v>
       </c>
       <c r="D12">
-        <v>0.2189459793983417</v>
+        <v>0.3345864992932803</v>
       </c>
       <c r="E12">
-        <v>0.189484907157258</v>
+        <v>0.2734773576317906</v>
       </c>
       <c r="F12">
-        <v>1.496125647310578</v>
+        <v>1.044282398910042</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2118399368558244</v>
+        <v>0.2933056896758188</v>
       </c>
       <c r="K12">
-        <v>0.6395349956353584</v>
+        <v>1.801028019548596</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.588597615513486</v>
+        <v>0.6154280668616969</v>
       </c>
       <c r="O12">
-        <v>3.588099970784015</v>
+        <v>2.148689082913734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6624245985358073</v>
+        <v>1.723419505992553</v>
       </c>
       <c r="C13">
-        <v>0.06546430898012545</v>
+        <v>0.2210697531897097</v>
       </c>
       <c r="D13">
-        <v>0.2185146656922399</v>
+        <v>0.3328476242161003</v>
       </c>
       <c r="E13">
-        <v>0.1891623182800686</v>
+        <v>0.2720804734126645</v>
       </c>
       <c r="F13">
-        <v>1.495842501159558</v>
+        <v>1.041019334642357</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2115192345898578</v>
+        <v>0.2918304953069537</v>
       </c>
       <c r="K13">
-        <v>0.6367450251273681</v>
+        <v>1.791219123227478</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.589545750708303</v>
+        <v>0.617690036817709</v>
       </c>
       <c r="O13">
-        <v>3.588250682931516</v>
+        <v>2.143772888481948</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6537943078372734</v>
+        <v>1.692592032646701</v>
       </c>
       <c r="C14">
-        <v>0.06435010879852143</v>
+        <v>0.2173527764436329</v>
       </c>
       <c r="D14">
-        <v>0.2171100146396299</v>
+        <v>0.3271838099456659</v>
       </c>
       <c r="E14">
-        <v>0.1881123984819268</v>
+        <v>0.2675332578929286</v>
       </c>
       <c r="F14">
-        <v>1.494938430656603</v>
+        <v>1.030436191333621</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2104760645166692</v>
+        <v>0.2870309457336901</v>
       </c>
       <c r="K14">
-        <v>0.6276479927724949</v>
+        <v>1.759254184551679</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.592651951424489</v>
+        <v>0.6251029903855525</v>
       </c>
       <c r="O14">
-        <v>3.588789690519292</v>
+        <v>2.127882585862324</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6485103116744995</v>
+        <v>1.673728885605357</v>
       </c>
       <c r="C15">
-        <v>0.06366739288363021</v>
+        <v>0.2150773648760804</v>
       </c>
       <c r="D15">
-        <v>0.2162511309136477</v>
+        <v>0.323719884740683</v>
       </c>
       <c r="E15">
-        <v>0.1874709166665198</v>
+        <v>0.2647542639792704</v>
       </c>
       <c r="F15">
-        <v>1.494399516668324</v>
+        <v>1.023998107077063</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2098391753365263</v>
+        <v>0.2840997037074402</v>
       </c>
       <c r="K15">
-        <v>0.622077090143847</v>
+        <v>1.739692787460967</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.594565442318435</v>
+        <v>0.629671251459853</v>
       </c>
       <c r="O15">
-        <v>3.589156349269615</v>
+        <v>2.118257643873619</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6182656420854471</v>
+        <v>1.565915876483814</v>
       </c>
       <c r="C16">
-        <v>0.05975145804789861</v>
+        <v>0.20205684355183</v>
       </c>
       <c r="D16">
-        <v>0.2113523767057188</v>
+        <v>0.3039478407272327</v>
       </c>
       <c r="E16">
-        <v>0.183819781476366</v>
+        <v>0.2489219098361986</v>
       </c>
       <c r="F16">
-        <v>1.491538962727219</v>
+        <v>0.9877645494831313</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2062213585675465</v>
+        <v>0.2674290584261314</v>
       </c>
       <c r="K16">
-        <v>0.5901727514635127</v>
+        <v>1.627855043585896</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.605697185577163</v>
+        <v>0.6562657686456292</v>
       </c>
       <c r="O16">
-        <v>3.591816952347699</v>
+        <v>2.064714615846071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5997439082712788</v>
+        <v>1.500012720143246</v>
       </c>
       <c r="C17">
-        <v>0.05734603491167434</v>
+        <v>0.1940843286107139</v>
       </c>
       <c r="D17">
-        <v>0.2083679085376104</v>
+        <v>0.2918847113105159</v>
       </c>
       <c r="E17">
-        <v>0.1816022246264382</v>
+        <v>0.2392882481671919</v>
       </c>
       <c r="F17">
-        <v>1.489987383283292</v>
+        <v>0.9661046344979667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2040304619399507</v>
+        <v>0.2573102755727916</v>
       </c>
       <c r="K17">
-        <v>0.5706190266997169</v>
+        <v>1.559461964812584</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.612674488373195</v>
+        <v>0.6729435129226418</v>
       </c>
       <c r="O17">
-        <v>3.593948301275077</v>
+        <v>2.033258031031323</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.58910278588192</v>
+        <v>1.462187432976947</v>
       </c>
       <c r="C18">
-        <v>0.05596137410451263</v>
+        <v>0.1895036450250984</v>
       </c>
       <c r="D18">
-        <v>0.2066589865261648</v>
+        <v>0.2849693608580708</v>
       </c>
       <c r="E18">
-        <v>0.1803349557725227</v>
+        <v>0.2337747169883002</v>
       </c>
       <c r="F18">
-        <v>1.489169682377991</v>
+        <v>0.9538470563849728</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2027808031475899</v>
+        <v>0.2515279023508583</v>
       </c>
       <c r="K18">
-        <v>0.5593792509650939</v>
+        <v>1.520196854029621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.616742141277424</v>
+        <v>0.6826663596250091</v>
       </c>
       <c r="O18">
-        <v>3.595357620847835</v>
+        <v>2.015656846762056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.585501978552486</v>
+        <v>1.44939366067743</v>
       </c>
       <c r="C19">
-        <v>0.05549236070318386</v>
+        <v>0.1879534832825982</v>
       </c>
       <c r="D19">
-        <v>0.2060816948337276</v>
+        <v>0.2826317746080207</v>
       </c>
       <c r="E19">
-        <v>0.1799072922367415</v>
+        <v>0.2319125114322063</v>
       </c>
       <c r="F19">
-        <v>1.488905659406811</v>
+        <v>0.9497305535149678</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2023594919804168</v>
+        <v>0.2495763728021672</v>
       </c>
       <c r="K19">
-        <v>0.555574878058394</v>
+        <v>1.50691426124024</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.61812873589205</v>
+        <v>0.6859804317031459</v>
       </c>
       <c r="O19">
-        <v>3.595866294196583</v>
+        <v>2.009780088588741</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6017143314641942</v>
+        <v>1.507019752160858</v>
       </c>
       <c r="C20">
-        <v>0.05760221326718806</v>
+        <v>0.1949324948716935</v>
       </c>
       <c r="D20">
-        <v>0.2086848177753069</v>
+        <v>0.2931664373060556</v>
       </c>
       <c r="E20">
-        <v>0.181837437902459</v>
+        <v>0.2403108883672047</v>
       </c>
       <c r="F20">
-        <v>1.490144818154789</v>
+        <v>0.9683894237804509</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2042626014225135</v>
+        <v>0.258383491890342</v>
       </c>
       <c r="K20">
-        <v>0.5726998329275261</v>
+        <v>1.566734848574953</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.61192610229706</v>
+        <v>0.6711545895509052</v>
       </c>
       <c r="O20">
-        <v>3.593702431526907</v>
+        <v>2.036555314321134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6563287538604925</v>
+        <v>1.701642691675715</v>
       </c>
       <c r="C21">
-        <v>0.06467742573737212</v>
+        <v>0.2184442584826485</v>
       </c>
       <c r="D21">
-        <v>0.2175222811401625</v>
+        <v>0.3288462918300326</v>
       </c>
       <c r="E21">
-        <v>0.1884204469554192</v>
+        <v>0.2688675618944742</v>
       </c>
       <c r="F21">
-        <v>1.495200882373851</v>
+        <v>1.033535416280785</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2107820348802392</v>
+        <v>0.288438881051519</v>
       </c>
       <c r="K21">
-        <v>0.6303197434259573</v>
+        <v>1.768639261278281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.591737323045715</v>
+        <v>0.6229198533152585</v>
       </c>
       <c r="O21">
-        <v>3.588623764064607</v>
+        <v>2.132527264010264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6921261495433555</v>
+        <v>1.829698219884364</v>
       </c>
       <c r="C22">
-        <v>0.06929097923676864</v>
+        <v>0.2338688698019098</v>
       </c>
       <c r="D22">
-        <v>0.2233655592523149</v>
+        <v>0.3523997658158038</v>
       </c>
       <c r="E22">
-        <v>0.1927955739554008</v>
+        <v>0.2878091127135178</v>
       </c>
       <c r="F22">
-        <v>1.499170261686686</v>
+        <v>1.078076851173023</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2151360936170761</v>
+        <v>0.3084620591972396</v>
       </c>
       <c r="K22">
-        <v>0.6680360431938084</v>
+        <v>1.901385592540436</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.579028497734905</v>
+        <v>0.5926230858791517</v>
       </c>
       <c r="O22">
-        <v>3.586938224310785</v>
+        <v>2.200046734101477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6730111066829068</v>
+        <v>1.761266886009366</v>
       </c>
       <c r="C23">
-        <v>0.0668296239200572</v>
+        <v>0.2256303802900277</v>
       </c>
       <c r="D23">
-        <v>0.220240754304541</v>
+        <v>0.3398058793148095</v>
       </c>
       <c r="E23">
-        <v>0.1904538476578281</v>
+        <v>0.2776725229337131</v>
       </c>
       <c r="F23">
-        <v>1.496990909749528</v>
+        <v>1.054115477259771</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2128037272822638</v>
+        <v>0.2977382613942439</v>
       </c>
       <c r="K23">
-        <v>0.6479010011785533</v>
+        <v>1.830456889546383</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.58576697192245</v>
+        <v>0.6086773238774357</v>
       </c>
       <c r="O23">
-        <v>3.587688334067963</v>
+        <v>2.163550418254232</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6008234804529877</v>
+        <v>1.50385167730289</v>
       </c>
       <c r="C24">
-        <v>0.05748640048216203</v>
+        <v>0.1945490302753967</v>
       </c>
       <c r="D24">
-        <v>0.2085415216443636</v>
+        <v>0.2925869073071823</v>
       </c>
       <c r="E24">
-        <v>0.1817310741976925</v>
+        <v>0.2398484752565651</v>
       </c>
       <c r="F24">
-        <v>1.490073410332286</v>
+        <v>0.967355865105489</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2041576202719142</v>
+        <v>0.2578981821037303</v>
       </c>
       <c r="K24">
-        <v>0.5717590944036033</v>
+        <v>1.563446608104982</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.612264272245483</v>
+        <v>0.6719629433231378</v>
       </c>
       <c r="O24">
-        <v>3.593813016155508</v>
+        <v>2.035063110668489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5234216593057113</v>
+        <v>1.229192520981258</v>
       </c>
       <c r="C25">
-        <v>0.04736546256532392</v>
+        <v>0.1612026804792634</v>
       </c>
       <c r="D25">
-        <v>0.1962154622044636</v>
+        <v>0.2425195907719058</v>
       </c>
       <c r="E25">
-        <v>0.172636256314739</v>
+        <v>0.2000835322377625</v>
       </c>
       <c r="F25">
-        <v>1.485468914126983</v>
+        <v>0.8813523205872826</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1952323776748983</v>
+        <v>0.2163424154230427</v>
       </c>
       <c r="K25">
-        <v>0.4898978073259173</v>
+        <v>1.278143849503977</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.64292909718014</v>
+        <v>0.7451725617775342</v>
       </c>
       <c r="O25">
-        <v>3.60743186500261</v>
+        <v>1.915062001929101</v>
       </c>
     </row>
   </sheetData>
